--- a/src/Magicodes.ExporterAndImporter.Tests/TestFiles/Errors/数据错误.xlsx
+++ b/src/Magicodes.ExporterAndImporter.Tests/TestFiles/Errors/数据错误.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E93460D-77DA-4EFB-86EA-39D1C5698EEF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38719CB-88CC-45A0-903F-1B97AA2D0379}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -515,7 +515,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/src/Magicodes.ExporterAndImporter.Tests/TestFiles/Errors/数据错误.xlsx
+++ b/src/Magicodes.ExporterAndImporter.Tests/TestFiles/Errors/数据错误.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38719CB-88CC-45A0-903F-1B97AA2D0379}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461E51F4-D586-4B3D-A170-F462E3AC5D42}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>产品代码</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -145,6 +145,14 @@
   </si>
   <si>
     <t>今天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  不去除空格测试    不去除空格测试  不去除空格测试  不去除空格测试  不去除空格测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>asads</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -514,13 +522,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="15.625" customWidth="1"/>
+    <col min="1" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="42.25" customWidth="1"/>
+    <col min="4" max="10" width="15.625" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23.75" customWidth="1"/>
     <col min="15" max="15" width="15.375" customWidth="1"/>
@@ -657,6 +667,9 @@
         <f ca="1">TODAY()</f>
         <v>43726</v>
       </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -698,6 +711,9 @@
       <c r="M4" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -737,6 +753,9 @@
         <v>16</v>
       </c>
       <c r="M5" s="3"/>
+      <c r="N5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -785,7 +804,7 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>12312412</v>

--- a/src/Magicodes.ExporterAndImporter.Tests/TestFiles/Errors/数据错误.xlsx
+++ b/src/Magicodes.ExporterAndImporter.Tests/TestFiles/Errors/数据错误.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461E51F4-D586-4B3D-A170-F462E3AC5D42}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3667FE1-6ECE-4005-98DB-C7F99534DAF0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,7 +152,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>asads</t>
+    <t>1a2221213213213213213232</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -532,7 +532,7 @@
     <col min="3" max="3" width="42.25" customWidth="1"/>
     <col min="4" max="10" width="15.625" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.75" customWidth="1"/>
+    <col min="14" max="14" width="26.625" customWidth="1"/>
     <col min="15" max="15" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -667,7 +667,7 @@
         <f ca="1">TODAY()</f>
         <v>43726</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="5" t="s">
         <v>33</v>
       </c>
     </row>

--- a/src/Magicodes.ExporterAndImporter.Tests/TestFiles/Errors/数据错误.xlsx
+++ b/src/Magicodes.ExporterAndImporter.Tests/TestFiles/Errors/数据错误.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3667FE1-6ECE-4005-98DB-C7F99534DAF0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BABF6E-E04C-4F11-BE3B-6FE00B6B32DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="35">
   <si>
     <t>产品代码</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -153,6 +153,10 @@
   </si>
   <si>
     <t>1a2221213213213213213232</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -520,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -619,7 +623,7 @@
       </c>
       <c r="M2" s="3">
         <f ca="1">TODAY()</f>
-        <v>43726</v>
+        <v>43734</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>27</v>
@@ -639,9 +643,6 @@
       <c r="D3">
         <v>12312412</v>
       </c>
-      <c r="E3">
-        <v>12312314</v>
-      </c>
       <c r="F3">
         <v>123124</v>
       </c>
@@ -665,7 +666,7 @@
       </c>
       <c r="M3" s="3">
         <f ca="1">TODAY()</f>
-        <v>43726</v>
+        <v>43734</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>33</v>
@@ -729,7 +730,7 @@
         <v>12312412</v>
       </c>
       <c r="E5">
-        <v>12312314</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>123124</v>
@@ -810,7 +811,7 @@
         <v>12312412</v>
       </c>
       <c r="E7">
-        <v>12312314</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>123124</v>
@@ -831,14 +832,221 @@
         <v>16</v>
       </c>
       <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <v>12312412</v>
+      </c>
+      <c r="E8">
+        <v>12312314</v>
+      </c>
+      <c r="F8">
+        <v>123124</v>
+      </c>
+      <c r="G8">
+        <v>1231</v>
+      </c>
+      <c r="H8">
+        <v>123513</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>12312412</v>
+      </c>
+      <c r="F9">
+        <v>123124</v>
+      </c>
+      <c r="G9">
+        <v>1231</v>
+      </c>
+      <c r="H9">
+        <v>123513</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>12312412</v>
+      </c>
+      <c r="E10">
+        <v>12312314</v>
+      </c>
+      <c r="F10">
+        <v>123124</v>
+      </c>
+      <c r="G10">
+        <v>1231</v>
+      </c>
+      <c r="H10">
+        <v>123513</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>12312412</v>
+      </c>
+      <c r="E11">
+        <v>12312314</v>
+      </c>
+      <c r="F11">
+        <v>123124</v>
+      </c>
+      <c r="G11">
+        <v>1231</v>
+      </c>
+      <c r="H11">
+        <v>123513</v>
+      </c>
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>12312412</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>123124</v>
+      </c>
+      <c r="G12">
+        <v>1231</v>
+      </c>
+      <c r="H12">
+        <v>123513</v>
+      </c>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>12312412</v>
+      </c>
+      <c r="E13">
+        <v>12312314</v>
+      </c>
+      <c r="F13">
+        <v>123124</v>
+      </c>
+      <c r="G13">
+        <v>1231</v>
+      </c>
+      <c r="H13">
+        <v>123513</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" sqref="L1:L7" xr:uid="{90061FCE-F949-4071-A206-8FCABBFDE82B}">
+    <dataValidation type="list" sqref="L1:L13" xr:uid="{90061FCE-F949-4071-A206-8FCABBFDE82B}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="K1:K7" xr:uid="{D223E661-8643-415F-96E7-01981C896EC2}">
+    <dataValidation type="list" sqref="K1:K13" xr:uid="{D223E661-8643-415F-96E7-01981C896EC2}">
       <formula1>"第一,第二"</formula1>
     </dataValidation>
   </dataValidations>
